--- a/documents/機能一覧_NANIKA.xlsx
+++ b/documents/機能一覧_NANIKA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\WEBあぷり\作成ドキュメント\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0A5D3F-550F-4A9C-AFE4-768F8773FA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E207622-7BBD-4682-8BF0-B0F6CAF65CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6948" yWindow="312" windowWidth="17280" windowHeight="10644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -144,33 +144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン機能</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウト機能</t>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規ユーザー登録機能</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト受験機能</t>
     <rPh sb="3" eb="5">
       <t>ジュケン</t>
@@ -181,19 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト可能科目表示</t>
-    <rPh sb="3" eb="5">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
@@ -232,19 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト結果一覧機能</t>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト結果一覧表示</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
@@ -262,10 +209,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー登録</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -273,13 +216,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ登録しているユーザがログインできる</t>
-  </si>
-  <si>
-    <t>ユーザ登録しているユーザがログアウトできる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>単元別レーダーチャート</t>
     <rPh sb="0" eb="3">
       <t>タンゲンベツ</t>
@@ -300,6 +236,51 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技能判定システム</t>
+    <rPh sb="0" eb="2">
+      <t>ギノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NANIKA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮本</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(確定)</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト可能科目表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト受験機能</t>
+    <rPh sb="3" eb="5">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチキノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -390,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,13 +397,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,64 +748,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H3" s="11">
+        <v>44356</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="H5" s="11">
+        <v>44356</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -847,7 +841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -857,203 +851,205 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="H8" s="8"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>5</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>6</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>14</v>
       </c>
@@ -1065,7 +1061,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>15</v>
       </c>
@@ -1077,7 +1073,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>16</v>
       </c>
@@ -1089,7 +1085,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -1101,7 +1097,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>18</v>
       </c>
@@ -1113,7 +1109,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>19</v>
       </c>
@@ -1125,7 +1121,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>20</v>
       </c>
@@ -1137,7 +1133,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>21</v>
       </c>
@@ -1149,7 +1145,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>22</v>
       </c>
@@ -1161,7 +1157,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>23</v>
       </c>
@@ -1173,7 +1169,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>24</v>
       </c>
@@ -1185,7 +1181,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>25</v>
       </c>
@@ -1197,7 +1193,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>26</v>
       </c>
@@ -1209,7 +1205,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>27</v>
       </c>
@@ -1221,7 +1217,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>28</v>
       </c>
@@ -1233,7 +1229,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>29</v>
       </c>
@@ -1264,7 +1260,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1277,7 +1273,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/機能一覧_NANIKA.xlsx
+++ b/documents/機能一覧_NANIKA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E207622-7BBD-4682-8BF0-B0F6CAF65CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1025295-CFFC-4F4A-9867-8DEAC80240C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6948" yWindow="312" windowWidth="17280" windowHeight="10644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -209,28 +209,461 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー登録</t>
+    <t>技能判定システム</t>
+    <rPh sb="0" eb="2">
+      <t>ギノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NANIKA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮本</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト可能科目表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録完了後にメールを送信し、記載されたURLをクリックすることで登録する</t>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[保留]ユーザー登録</t>
+    <rPh sb="1" eb="3">
+      <t>ホリュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録しているユーザーがログインできる</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単元別レーダーチャート</t>
-    <rPh sb="0" eb="3">
+    <t>技能判定機能</t>
+    <rPh sb="0" eb="4">
+      <t>ギノウハンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト科目別レーダーチャート</t>
+    <rPh sb="3" eb="5">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去のデータ分析</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト解説表示</t>
+    <rPh sb="3" eb="5">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト正誤判定</t>
+    <rPh sb="3" eb="7">
+      <t>セイゴハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在受けることができるテストをリストで形式で表示</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト問題を表示する</t>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題の答えを選択する</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次へ又は戻るボタンをクリックして前後の問題に移動する</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了ボタンをクリックしてテストを終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限時間を表示する</t>
+    <rPh sb="0" eb="4">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受験したテストの問題の答えと解説を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしているユーザーがログアウトできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師からのコメントを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した答えと問題の答えが一致しているか判定する</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受験したテストの正答率や分析結果を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セイトウリツ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ブンセキケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受験したテストの結果を項目別にレーダーチャートへ反映する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>コウモクベツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受験したテストの結果を単元別にレーダーチャートへ反映する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
       <t>タンゲンベツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト詳細</t>
+    <rPh sb="24" eb="26">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト科目ごとに分析した評価を表示</t>
     <rPh sb="3" eb="5">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>単元のカテゴリ別レチャート</t>
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単元ごとの棒グラフから分析した評価を表示</t>
+    <rPh sb="0" eb="2">
+      <t>タンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の成績の棒グラフ</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単元ごとの過去の成績を比較する棒グラフを表示</t>
+    <rPh sb="0" eb="2">
+      <t>タンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SJ001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SJ002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SJ003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SJ004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SJ005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SJ006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SJ007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単元のカテゴリ別レーダーチャート</t>
     <rPh sb="0" eb="2">
       <t>タンゲン</t>
     </rPh>
@@ -240,48 +673,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>技能判定システム</t>
-    <rPh sb="0" eb="2">
-      <t>ギノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NANIKA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宮本</t>
-    <rPh sb="0" eb="2">
-      <t>ミヤモト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー登録(確定)</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト可能科目表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト受験機能</t>
+    <t>科目別のレーダーチャートの結果分析</t>
+    <rPh sb="0" eb="3">
+      <t>カモクベツ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ケッカブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト科目のデータ分析</t>
     <rPh sb="3" eb="5">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチキノウ</t>
-    </rPh>
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -315,7 +727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +737,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,14 +817,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -759,9 +1183,10 @@
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="33.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
@@ -769,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>29</v>
+      <c r="H2" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="I2" s="10"/>
     </row>
@@ -784,12 +1209,12 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>44356</v>
       </c>
       <c r="I3" s="10"/>
@@ -805,7 +1230,7 @@
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>44356</v>
       </c>
       <c r="I5" s="10"/>
@@ -841,297 +1266,473 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
@@ -1140,7 +1741,6 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
